--- a/trend_results/Rivers/HokioatLakeHorowhenua_960456d711.xlsx
+++ b/trend_results/Rivers/HokioatLakeHorowhenua_960456d711.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.65107028464814</v>
+        <v>0.34892971535186</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.43779795287082</v>
+        <v>0.56220204712918</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0633527477575682</v>
+        <v>0.9366472522424319</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.585685158208771</v>
+        <v>0.414314841791229</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -3429,6 +3429,93 @@
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.629598709899997</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>69.11499999999999</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.11357276119403</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.599042592330187</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.940120862127086</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.164324330744455</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/HokioatLakeHorowhenua_960456d711.xlsx
+++ b/trend_results/Rivers/HokioatLakeHorowhenua_960456d711.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.67356104003675</v>
+        <v>0.821282129410363</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.861111111111111</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.36</v>
+        <v>0.3515</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0069916568905195</v>
+        <v>0.0137224220623501</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0259785506619514</v>
+        <v>-0.0144212995580663</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0348236511142529</v>
+        <v>0.0449356701570563</v>
       </c>
       <c r="N2" t="n">
-        <v>1.94212691403321</v>
+        <v>3.90396075742536</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.34892971535186</v>
+        <v>0.129495088325292</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.978260869565217</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.914999999999999</v>
+        <v>9.945</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.07771276595745891</v>
+        <v>-0.262866627288641</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.483900066383836</v>
+        <v>-0.604845631750338</v>
       </c>
       <c r="M3" t="n">
-        <v>0.250960927296293</v>
+        <v>0.125908488593809</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.783789873499334</v>
+        <v>-2.64320389430508</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.656163552872295</v>
+        <v>0.07382932562019499</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.75</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0145</v>
+        <v>0.0225</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0009710766613552</v>
+        <v>0.002945564516129</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0030436517891359</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0015880954836802</v>
+        <v>0.0073345242070384</v>
       </c>
       <c r="N4" t="n">
-        <v>-6.69708042313951</v>
+        <v>13.0913978494624</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.975727207109972</v>
+        <v>0.964690351948467</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H5" t="n">
-        <v>0.652173913043478</v>
+        <v>0.604166666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="K5" t="n">
-        <v>-13.5277777777778</v>
+        <v>-8.110198774456659</v>
       </c>
       <c r="L5" t="n">
-        <v>-24.5243996958368</v>
+        <v>-18.438626184851</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.90522779319724</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-22.5462962962963</v>
+        <v>-17.6308669009927</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.177737373342107</v>
+        <v>0.247892818153657</v>
       </c>
       <c r="G6" t="n">
-        <v>0.166666666666667</v>
+        <v>0.116279069767442</v>
       </c>
       <c r="H6" t="n">
-        <v>0.857142857142857</v>
+        <v>0.883720930232558</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0363483527537652</v>
+        <v>0.0323786529509778</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0028397868705485</v>
+        <v>0.0025284550896167</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.00191685040307</v>
+        <v>-0.0046887561121888</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0104415138499663</v>
+        <v>0.0089021362430955</v>
       </c>
       <c r="N6" t="n">
-        <v>7.81269756510337</v>
+        <v>7.80901877988827</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1020,21 +1020,21 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.390838331444529</v>
+        <v>0.751378346969386</v>
       </c>
       <c r="G7" t="n">
-        <v>0.217391304347826</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0.391304347826087</v>
+        <v>0.375</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1043,16 +1043,16 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.0006695692025664</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0009578113515856</v>
+        <v>-0.0015124210205566</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0014184768476056</v>
+        <v>0.0005003847711294</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-7.4396578062939</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.584731506130731</v>
+        <v>0.143044967585667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.195652173913043</v>
+        <v>0.1875</v>
       </c>
       <c r="H8" t="n">
-        <v>0.826086956521739</v>
+        <v>0.8125</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4115</v>
+        <v>0.3895</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0031422057811424</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.015360567594321</v>
+        <v>-0.0015269123292012</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0164934335917886</v>
+        <v>0.0881513374542081</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.806728056775986</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.56220204712918</v>
+        <v>0.412878557571226</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.888888888888889</v>
+        <v>0.872340425531915</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.09</v>
+        <v>8.26</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0122069368774099</v>
+        <v>-0.014823457792208</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.110935181705294</v>
+        <v>-0.177541754712101</v>
       </c>
       <c r="M9" t="n">
-        <v>0.135293805413743</v>
+        <v>0.133165860369036</v>
       </c>
       <c r="N9" t="n">
-        <v>0.150889207384548</v>
+        <v>-0.179460748089685</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.308537538725987</v>
+        <v>0.06614232270543439</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.934782608695652</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5245</v>
+        <v>0.517</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0038141897165334</v>
+        <v>0.0167817567567568</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0161556381148635</v>
+        <v>-0.0010045534300864</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0712420171638944</v>
+        <v>0.0888082812546504</v>
       </c>
       <c r="N10" t="n">
-        <v>0.727204903056905</v>
+        <v>3.24598776726436</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.818697582183069</v>
+        <v>0.802454207547925</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0217391304347826</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.608695652173913</v>
+        <v>0.9375</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>14.5</v>
+        <v>1.625</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.8614386792452829</v>
+        <v>-0.135997340425532</v>
       </c>
       <c r="L11" t="n">
-        <v>-3.40353774377186</v>
+        <v>-0.27138592921194</v>
       </c>
       <c r="M11" t="n">
-        <v>0.819505584909476</v>
+        <v>0.0560973944931487</v>
       </c>
       <c r="N11" t="n">
-        <v>-5.94095640858816</v>
+        <v>-8.36906710310965</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.992903894815411</v>
+        <v>0.8705226151705679</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.978260869565217</v>
+        <v>0.875</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.765</v>
+        <v>0.111</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.209333003952569</v>
+        <v>-0.008345766129032201</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.349142529332663</v>
+        <v>-0.0295669392981553</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.076285162715118</v>
+        <v>0.0054141513934565</v>
       </c>
       <c r="N12" t="n">
-        <v>-11.8602268528368</v>
+        <v>-7.51870822435339</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9892758899783241</v>
+        <v>0.995635064570872</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.847826086956522</v>
+        <v>0.9375</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.121</v>
+        <v>8.445</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.025627411922178</v>
+        <v>-1.49044125768565</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.047710873443103</v>
+        <v>-2.50283065462716</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0063999051957814</v>
+        <v>-0.63484241847087</v>
       </c>
       <c r="N13" t="n">
-        <v>-21.1796792745273</v>
+        <v>-17.6488011567277</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.800330975360852</v>
+        <v>0.054148417341957</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.956521739130435</v>
+        <v>0.5625</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.215</v>
+        <v>0.38</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.496923197492163</v>
+        <v>-0.0104595584877173</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.77289051167619</v>
+        <v>-0.022174575655599</v>
       </c>
       <c r="M14" t="n">
-        <v>0.440643735515992</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-5.39254690713145</v>
+        <v>-2.75251539150456</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.055576844694961</v>
+        <v>0.8926040052984771</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.608108108108108</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.38</v>
+        <v>9.76</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0127412790697674</v>
+        <v>0.08874669781504189</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.028335302614861</v>
+        <v>-0.026016306884225</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.193075072529008</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.35296817625459</v>
+        <v>0.909289936629528</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9366472522424319</v>
+        <v>0.929504175153641</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="H16" t="n">
-        <v>0.926315789473684</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>9.550000000000001</v>
+        <v>0.021</v>
       </c>
       <c r="K16" t="n">
-        <v>0.133403652392947</v>
+        <v>-0.0007108797197353</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0090125387886375</v>
+        <v>-0.0014796632858608</v>
       </c>
       <c r="M16" t="n">
-        <v>0.270410611374167</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.39689688369578</v>
+        <v>-3.38514152254907</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.949324154545037</v>
+        <v>0.615529474516092</v>
       </c>
       <c r="G17" t="n">
-        <v>0.105263157894737</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="H17" t="n">
-        <v>0.578947368421053</v>
+        <v>0.495238095238095</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.017</v>
+        <v>48</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0008308689717925</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0017255984210247</v>
+        <v>-3.17504849601924</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.03239119337312</v>
       </c>
       <c r="N17" t="n">
-        <v>-4.88746453995611</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.225748894753654</v>
+        <v>0.0474384810290987</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0210526315789474</v>
+        <v>0.3</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5473684210526319</v>
+        <v>0.72</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>54</v>
+        <v>0.025</v>
       </c>
       <c r="K18" t="n">
-        <v>1.08957573748757</v>
+        <v>0.0010742548601416</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.69891986298815</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4.99127270005129</v>
+        <v>0.0025945910206292</v>
       </c>
       <c r="N18" t="n">
-        <v>2.0177328471992</v>
+        <v>4.29701944056657</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0926512393286779</v>
+        <v>0.362223012979277</v>
       </c>
       <c r="G19" t="n">
-        <v>0.32967032967033</v>
+        <v>0.180952380952381</v>
       </c>
       <c r="H19" t="n">
-        <v>0.714285714285714</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.025</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0009669806727824</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0028439440925983</v>
+        <v>0.0001975029009895</v>
       </c>
       <c r="N19" t="n">
-        <v>3.86792269112993</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,28 +2207,28 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.126855170751438</v>
+        <v>0.400271053711563</v>
       </c>
       <c r="G20" t="n">
-        <v>0.168421052631579</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="H20" t="n">
-        <v>0.284210526315789</v>
+        <v>0.780952380952381</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.456</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-0.0009329745695445</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0003321537281752</v>
+        <v>0.003866161570634</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.456681521250997</v>
+        <v>0.307176603557846</v>
       </c>
       <c r="G21" t="n">
-        <v>0.168421052631579</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.821052631578947</v>
+        <v>0.875</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.444</v>
+        <v>8.105</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0113628508839206</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0012741170204987</v>
+        <v>-0.0567925487288932</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0105272177980585</v>
+        <v>0.0333644476270914</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-0.140195569203215</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Hoki_1b</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,35 +2381,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.414314841791229</v>
+        <v>0.237364693252343</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="H22" t="n">
-        <v>0.872340425531915</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>8.055</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0037372100954979</v>
+        <v>0.0016708600182982</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0543104166449138</v>
+        <v>-0.0030085017970338</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0341692327357061</v>
+        <v>0.0107944972840974</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0463961526442953</v>
+        <v>0.298367860410404</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Hoki_1b</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2472,35 +2472,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.238505516627439</v>
+        <v>0.898054155600185</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0421052631578947</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8947368421052631</v>
+        <v>0.9428571428571429</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.539</v>
+        <v>1.94</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0016708600182982</v>
+        <v>-0.0414679836512262</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0031252621381422</v>
+        <v>-0.07639423918093149</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0271852312234371</v>
+        <v>0.007995103933803</v>
       </c>
       <c r="N23" t="n">
-        <v>0.309992582244575</v>
+        <v>-2.13752493047558</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.415427294036511</v>
+        <v>0.679134309908725</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0105263157894737</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.452631578947368</v>
+        <v>0.847619047619048</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>15</v>
+        <v>0.111</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.0006634877384196</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.466583113174599</v>
+        <v>-0.0039918286764572</v>
       </c>
       <c r="M24" t="n">
-        <v>0.621768874703472</v>
+        <v>0.0017036544669771</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>-0.597736701278934</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.584153564773145</v>
+        <v>0.701558800797819</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.957894736842105</v>
+        <v>0.923809523809524</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.97</v>
+        <v>8.32</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0142779545454546</v>
+        <v>-0.0807932715508483</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.06969095629400621</v>
+        <v>-0.431747240010337</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0543720412517505</v>
+        <v>0.164570050489979</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.724769266266731</v>
+        <v>-0.971072975370773</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.374712345253539</v>
+        <v>6.08519791940321e-05</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.852631578947368</v>
+        <v>0.5048543689320391</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.111</v>
+        <v>0.4</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0005990978676872</v>
+        <v>-0.0221783681214421</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0027892314263156</v>
+        <v>-0.0337810408616128</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0039610223882725</v>
+        <v>-0.012985641600342</v>
       </c>
       <c r="N26" t="n">
-        <v>0.539727808727262</v>
+        <v>-5.54459203036053</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.195310204042371</v>
+        <v>0.985085770547828</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.926315789473684</v>
+        <v>0.922480620155039</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>8.619999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="K27" t="n">
-        <v>0.156040348101266</v>
+        <v>0.101614342248411</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.164460925108719</v>
+        <v>0.0251674853498152</v>
       </c>
       <c r="M27" t="n">
-        <v>0.548568157701688</v>
+        <v>0.171674949416011</v>
       </c>
       <c r="N27" t="n">
-        <v>1.81021285500308</v>
+        <v>1.04865162279062</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.95679463351315</v>
+        <v>0.617924964916726</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0930232558139535</v>
       </c>
       <c r="H28" t="n">
+        <v>0.496124031007752</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>0.115</v>
+        <v>0.018</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0071504206140361</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0027235267817403</v>
+        <v>-0.0005683125854498</v>
       </c>
       <c r="M28" t="n">
-        <v>0.012776933233196</v>
+        <v>0.0005151832998942</v>
       </c>
       <c r="N28" t="n">
-        <v>6.21775705568357</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2993,7 +2993,11 @@
           <t>Hoki_1b</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3003,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3018,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.95679463351315</v>
+        <v>0.987473149563441</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0387596899224806</v>
       </c>
       <c r="H29" t="n">
+        <v>0.573643410852713</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>69.23</v>
+        <v>58</v>
       </c>
       <c r="K29" t="n">
-        <v>3.4027442656209</v>
+        <v>-3.03950459784817</v>
       </c>
       <c r="L29" t="n">
-        <v>-1.31738628812107</v>
+        <v>-5.65587953711651</v>
       </c>
       <c r="M29" t="n">
-        <v>6.53110659425802</v>
+        <v>-0.54573910014016</v>
       </c>
       <c r="N29" t="n">
-        <v>4.91512966289311</v>
+        <v>-5.24052516870375</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3080,7 +3084,11 @@
           <t>Hoki_1b</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3090,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3105,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.04320536648685</v>
+        <v>0.22520492855837</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.24390243902439</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.772357723577236</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>3.85</v>
+        <v>0.025</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.168934405089409</v>
+        <v>0.0002916531103685</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.321929614291938</v>
+        <v>-0.0005081730148082</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.09243105303180681</v>
+        <v>0.0012632574194523</v>
       </c>
       <c r="N30" t="n">
-        <v>-4.38790662569892</v>
+        <v>1.16661244147419</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3167,7 +3175,11 @@
           <t>Hoki_1b</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3177,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.793052120930215</v>
+        <v>0.175383490792458</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.19672131147541</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8</v>
+        <v>0.270491803278689</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0.114</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0009462435233159999</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0013703241107318</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0034146318063162</v>
+        <v>0.0002499518459005</v>
       </c>
       <c r="N31" t="n">
-        <v>0.830038178347424</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3254,7 +3266,11 @@
           <t>Hoki_1b</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3264,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.793052120930215</v>
+        <v>0.308866751452978</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.155737704918033</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8</v>
+        <v>0.8032786885245899</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>68.61499999999999</v>
+        <v>0.4975</v>
       </c>
       <c r="K32" t="n">
-        <v>0.495926680244399</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.8374768775122891</v>
+        <v>-0.0008223271408172</v>
       </c>
       <c r="M32" t="n">
-        <v>1.75838306094453</v>
+        <v>0.0065235485375974</v>
       </c>
       <c r="N32" t="n">
-        <v>0.722767150396268</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3312,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3341,7 +3357,11 @@
           <t>Hoki_1b</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3351,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3366,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.141565435331173</v>
+        <v>0.808864039028858</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.811023622047244</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.0205</v>
+        <v>8.02</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0758829639889196</v>
+        <v>0.0144174584528013</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.210006145960623</v>
+        <v>-0.0100331846437842</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0343002215838719</v>
+        <v>0.0339064214125654</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.88740116873323</v>
+        <v>0.17976880863842</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3399,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,14 +3458,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3453,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.629598709899997</v>
+        <v>0.5</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="H34" t="n">
-        <v>0.785714285714286</v>
+        <v>0.922480620155039</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>69.11499999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>0.11357276119403</v>
+        <v>0.0003184908936628</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.599042592330187</v>
+        <v>-0.0073203194446381</v>
       </c>
       <c r="M34" t="n">
-        <v>0.940120862127086</v>
+        <v>0.0062980558587358</v>
       </c>
       <c r="N34" t="n">
-        <v>0.164324330744455</v>
+        <v>0.056873373868369</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3515,7 +3535,1067 @@
           <t>Hoki_1b</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.563725763056463</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.914728682170543</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.0042240292658447</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0366853290230852</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0234778137625732</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.222317329781302</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0130687627704889</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.798449612403101</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0017366742984685</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0005466949368845</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0032171984093117</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.75421646309958</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.340020919149748</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.922480620155039</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0471891146952723</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.101045673165742</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.201378703709847</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.571296788078357</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0037981751361226</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0179708988322741</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0106050548225992</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.30276098793278</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.473936115800681</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-16.2996706748337</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5.85009197750436</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.684581995956495</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.04320536648685</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.238880318525837</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.654643942166109</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.09243105303180681</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-6.45622482502263</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.737445201097924</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.000508704735376</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0011145480891264</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0034146318063162</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.450181181748712</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.6073244615435071</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>68</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.204486800182067</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-1.30729806899117</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.75838306094453</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.300715882620687</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.006133030693106</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.0205</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.182625</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.28281813803341</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.0771967600229192</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-4.54234547941798</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>15</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.478050036644582</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.0017166967865501</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0013488750613803</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>15</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.382609514613013</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>69</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.164627578304049</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.976115229318419</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.672328529714606</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.238590693194273</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>15</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.077314875982908</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.9255</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0758829639889196</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.152303813142012</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0043142035472446</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.93307767135192</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/HokioatLakeHorowhenua_960456d711.xlsx
+++ b/trend_results/Rivers/HokioatLakeHorowhenua_960456d711.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -139,49 +139,52 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
     <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -660,13 +663,13 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.821282129410363</v>
+        <v>0.623506830977246</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.764705882352941</v>
+        <v>0.763157894736842</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -675,22 +678,22 @@
         <v>0.3515</v>
       </c>
       <c r="K2">
-        <v>0.0137224220623501</v>
+        <v>0.0031718436873747</v>
       </c>
       <c r="L2">
-        <v>-0.0144212995580663</v>
+        <v>-0.0160639898903658</v>
       </c>
       <c r="M2">
-        <v>0.0449356701570563</v>
+        <v>0.0269127958356674</v>
       </c>
       <c r="N2">
-        <v>3.90396075742536</v>
+        <v>0.902373737517711</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q2">
         <v>1789183.391</v>
@@ -699,19 +702,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -731,37 +734,37 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.129495088325292</v>
+        <v>0.735339229769892</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.945</v>
+        <v>10.19</v>
       </c>
       <c r="K3">
-        <v>-0.262866627288641</v>
+        <v>0.122155874905097</v>
       </c>
       <c r="L3">
-        <v>-0.604845631750338</v>
+        <v>-0.196101463616534</v>
       </c>
       <c r="M3">
-        <v>0.125908488593809</v>
+        <v>0.418391571190701</v>
       </c>
       <c r="N3">
-        <v>-2.64320389430508</v>
+        <v>1.1987818930824</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3">
         <v>1789183.391</v>
@@ -770,19 +773,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -802,7 +805,7 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.07382932562019499</v>
+        <v>0.0029298083844888</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -814,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0225</v>
+        <v>0.0235</v>
       </c>
       <c r="K4">
-        <v>0.002945564516129</v>
+        <v>0.0038079759075194</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0010057592857186</v>
       </c>
       <c r="M4">
-        <v>0.0073345242070384</v>
+        <v>0.0080311341157372</v>
       </c>
       <c r="N4">
-        <v>13.0913978494624</v>
+        <v>16.2041527979551</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q4">
         <v>1789183.391</v>
@@ -841,19 +844,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -873,37 +876,37 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.964690351948467</v>
+        <v>0.845964749319067</v>
       </c>
       <c r="G5">
-        <v>0.0625</v>
+        <v>0.0892857142857143</v>
       </c>
       <c r="H5">
-        <v>0.604166666666667</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>-8.110198774456659</v>
+        <v>-3.05642108263203</v>
       </c>
       <c r="L5">
-        <v>-18.438626184851</v>
+        <v>-10.2506016154726</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.31461600309155</v>
       </c>
       <c r="N5">
-        <v>-17.6308669009927</v>
+        <v>-7.83697713495392</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1789183.391</v>
@@ -912,19 +915,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -944,37 +947,37 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.247892818153657</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.116279069767442</v>
+        <v>0.1</v>
       </c>
       <c r="H6">
-        <v>0.883720930232558</v>
+        <v>0.9</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0323786529509778</v>
+        <v>0.0326648291842772</v>
       </c>
       <c r="K6">
-        <v>0.0025284550896167</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.0046887561121888</v>
+        <v>-0.0053962314466585</v>
       </c>
       <c r="M6">
-        <v>0.0089021362430955</v>
+        <v>0.006231146290918</v>
       </c>
       <c r="N6">
-        <v>7.80901877988827</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1789183.391</v>
@@ -983,19 +986,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1009,43 +1012,43 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>0.751378346969386</v>
+        <v>0.98029401754528</v>
       </c>
       <c r="G7">
-        <v>0.208333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H7">
-        <v>0.375</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.008999999999999999</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="K7">
-        <v>-0.0006695692025664</v>
+        <v>-0.0010107375660464</v>
       </c>
       <c r="L7">
-        <v>-0.0015124210205566</v>
+        <v>-0.0018977595116689</v>
       </c>
       <c r="M7">
-        <v>0.0005003847711294</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>-7.4396578062939</v>
+        <v>-11.8910301887812</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>1789183.391</v>
@@ -1054,19 +1057,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,40 +1086,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>0.143044967585667</v>
+        <v>0.595410643988277</v>
       </c>
       <c r="G8">
-        <v>0.1875</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="H8">
-        <v>0.8125</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.3895</v>
+        <v>0.3585</v>
       </c>
       <c r="K8">
-        <v>0.0031422057811424</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.0015269123292012</v>
+        <v>-0.0564581178669199</v>
       </c>
       <c r="M8">
-        <v>0.0881513374542081</v>
+        <v>0.0069587645939028</v>
       </c>
       <c r="N8">
-        <v>0.806728056775986</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>1789183.391</v>
@@ -1125,19 +1128,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,43 +1154,43 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.412878557571226</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.872340425531915</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.26</v>
+        <v>8.27</v>
       </c>
       <c r="K9">
-        <v>-0.014823457792208</v>
+        <v>0.0007526333689085001</v>
       </c>
       <c r="L9">
-        <v>-0.177541754712101</v>
+        <v>-0.106760956770049</v>
       </c>
       <c r="M9">
-        <v>0.133165860369036</v>
+        <v>0.146337340690429</v>
       </c>
       <c r="N9">
-        <v>-0.179460748089685</v>
+        <v>0.009100766250406201</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1789183.391</v>
@@ -1196,16 +1199,16 @@
         <v>5502687.637</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,37 +1228,37 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.06614232270543439</v>
+        <v>0.349837812817352</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="H10">
-        <v>0.958333333333333</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0.517</v>
+        <v>0.497</v>
       </c>
       <c r="K10">
-        <v>0.0167817567567568</v>
+        <v>0.0032411955405065</v>
       </c>
       <c r="L10">
-        <v>-0.0010045534300864</v>
+        <v>-0.0921599917060921</v>
       </c>
       <c r="M10">
-        <v>0.0888082812546504</v>
+        <v>0.0394852222340542</v>
       </c>
       <c r="N10">
-        <v>3.24598776726436</v>
+        <v>0.652152020222644</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q10">
         <v>1789183.391</v>
@@ -1264,19 +1267,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,37 +1299,37 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.802454207547925</v>
+        <v>0.9391462810797</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.9375</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.625</v>
+        <v>1.605</v>
       </c>
       <c r="K11">
-        <v>-0.135997340425532</v>
+        <v>-0.143075572168393</v>
       </c>
       <c r="L11">
-        <v>-0.27138592921194</v>
+        <v>-0.243395070584502</v>
       </c>
       <c r="M11">
-        <v>0.0560973944931487</v>
+        <v>-0.0037628167513868</v>
       </c>
       <c r="N11">
-        <v>-8.36906710310965</v>
+        <v>-8.91436586718959</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q11">
         <v>1789183.391</v>
@@ -1335,19 +1338,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1367,37 +1370,37 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.8705226151705679</v>
+        <v>0.591519339142304</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.875</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.111</v>
+        <v>0.121</v>
       </c>
       <c r="K12">
-        <v>-0.008345766129032201</v>
+        <v>-0.0008463392231319</v>
       </c>
       <c r="L12">
-        <v>-0.0295669392981553</v>
+        <v>-0.007998889525532101</v>
       </c>
       <c r="M12">
-        <v>0.0054141513934565</v>
+        <v>0.0076629828236938</v>
       </c>
       <c r="N12">
-        <v>-7.51870822435339</v>
+        <v>-0.699453903414847</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1789183.391</v>
@@ -1406,19 +1409,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,37 +1441,37 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.995635064570872</v>
+        <v>0.999129623514177</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.9375</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.445</v>
+        <v>7.925</v>
       </c>
       <c r="K13">
-        <v>-1.49044125768565</v>
+        <v>-1.42781467013889</v>
       </c>
       <c r="L13">
-        <v>-2.50283065462716</v>
+        <v>-2.13923683032754</v>
       </c>
       <c r="M13">
-        <v>-0.63484241847087</v>
+        <v>-0.733694239562837</v>
       </c>
       <c r="N13">
-        <v>-17.6488011567277</v>
+        <v>-18.0165888976516</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q13">
         <v>1789183.391</v>
@@ -1477,19 +1480,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1509,13 +1512,13 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.054148417341957</v>
+        <v>0.030352207339386</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.5625</v>
+        <v>0.575</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1524,22 +1527,22 @@
         <v>0.38</v>
       </c>
       <c r="K14">
-        <v>-0.0104595584877173</v>
+        <v>-0.0116233818770227</v>
       </c>
       <c r="L14">
-        <v>-0.022174575655599</v>
+        <v>-0.0228496480393339</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>-2.75251539150456</v>
+        <v>-3.05878470447965</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q14">
         <v>1789183.391</v>
@@ -1548,19 +1551,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1580,37 +1583,37 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.8926040052984771</v>
+        <v>0.959462902479101</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.933333333333333</v>
+        <v>0.952830188679245</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.76</v>
+        <v>9.904999999999999</v>
       </c>
       <c r="K15">
-        <v>0.08874669781504189</v>
+        <v>0.128937918441875</v>
       </c>
       <c r="L15">
-        <v>-0.026016306884225</v>
+        <v>0.0110597685054219</v>
       </c>
       <c r="M15">
-        <v>0.193075072529008</v>
+        <v>0.237264511182161</v>
       </c>
       <c r="N15">
-        <v>0.909289936629528</v>
+        <v>1.3017457692264</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q15">
         <v>1789183.391</v>
@@ -1619,19 +1622,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,40 +1651,40 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>0.929504175153641</v>
+        <v>0.633752442702838</v>
       </c>
       <c r="G16">
-        <v>0.114285714285714</v>
+        <v>0.122641509433962</v>
       </c>
       <c r="H16">
-        <v>0.571428571428571</v>
+        <v>0.584905660377358</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="K16">
-        <v>-0.0007108797197353</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0014796632858608</v>
+        <v>-0.0012515978604401</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0007281957001764</v>
       </c>
       <c r="N16">
-        <v>-3.38514152254907</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q16">
         <v>1789183.391</v>
@@ -1690,19 +1693,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,40 +1722,40 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17">
-        <v>0.615529474516092</v>
+        <v>0.870438679946979</v>
       </c>
       <c r="G17">
-        <v>0.0476190476190476</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="H17">
-        <v>0.495238095238095</v>
+        <v>0.518867924528302</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>48</v>
+        <v>51.9</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>-1.35881696428571</v>
       </c>
       <c r="L17">
-        <v>-3.17504849601924</v>
+        <v>-4.60257479611471</v>
       </c>
       <c r="M17">
-        <v>2.03239119337312</v>
+        <v>0.530853515350639</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>-2.61814443985687</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q17">
         <v>1789183.391</v>
@@ -1761,19 +1764,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>0.0474384810290987</v>
+        <v>0.0013282342111894</v>
       </c>
       <c r="G18">
         <v>0.3</v>
       </c>
       <c r="H18">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -1808,22 +1811,22 @@
         <v>0.025</v>
       </c>
       <c r="K18">
-        <v>0.0010742548601416</v>
+        <v>0.0020724306562034</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0006048431489892</v>
       </c>
       <c r="M18">
-        <v>0.0025945910206292</v>
+        <v>0.0037258598369345</v>
       </c>
       <c r="N18">
-        <v>4.29701944056657</v>
+        <v>8.289722624813759</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q18">
         <v>1789183.391</v>
@@ -1832,19 +1835,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,16 +1864,16 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19">
-        <v>0.362223012979277</v>
+        <v>0.9245692872068521</v>
       </c>
       <c r="G19">
-        <v>0.180952380952381</v>
+        <v>0.226415094339623</v>
       </c>
       <c r="H19">
-        <v>0.266666666666667</v>
+        <v>0.254716981132075</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1879,22 +1882,22 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.0001179405548684</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-0.0005961602726915</v>
       </c>
       <c r="M19">
-        <v>0.0001975029009895</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-1.31045060964969</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q19">
         <v>1789183.391</v>
@@ -1903,19 +1906,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1935,37 +1938,37 @@
         <v>40</v>
       </c>
       <c r="F20">
-        <v>0.400271053711563</v>
+        <v>0.953049537920853</v>
       </c>
       <c r="G20">
-        <v>0.171428571428571</v>
+        <v>0.207547169811321</v>
       </c>
       <c r="H20">
-        <v>0.780952380952381</v>
+        <v>0.745283018867924</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.456</v>
+        <v>0.4115</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-0.0019609968602825</v>
       </c>
       <c r="L20">
-        <v>-0.0009329745695445</v>
+        <v>-0.0173055825312325</v>
       </c>
       <c r="M20">
-        <v>0.003866161570634</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>-0.476548447213262</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q20">
         <v>1789183.391</v>
@@ -1974,19 +1977,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2006,37 +2009,37 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.307176603557846</v>
+        <v>0.725757959778136</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.875</v>
+        <v>0.865384615384615</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.105</v>
+        <v>8.185</v>
       </c>
       <c r="K21">
-        <v>-0.0113628508839206</v>
+        <v>0.0149216976849753</v>
       </c>
       <c r="L21">
-        <v>-0.0567925487288932</v>
+        <v>-0.021019646928705</v>
       </c>
       <c r="M21">
-        <v>0.0333644476270914</v>
+        <v>0.0440497950487451</v>
       </c>
       <c r="N21">
-        <v>-0.140195569203215</v>
+        <v>0.182305408490841</v>
       </c>
       <c r="O21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q21">
         <v>1789183.391</v>
@@ -2045,16 +2048,16 @@
         <v>5502687.637</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2071,37 +2074,37 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22">
-        <v>0.237364693252343</v>
+        <v>0.720496072137472</v>
       </c>
       <c r="G22">
-        <v>0.0380952380952381</v>
+        <v>0.0471698113207547</v>
       </c>
       <c r="H22">
-        <v>0.904761904761905</v>
+        <v>0.89622641509434</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>0.5600000000000001</v>
+        <v>0.5245</v>
       </c>
       <c r="K22">
-        <v>0.0016708600182982</v>
+        <v>-0.0010006924428031</v>
       </c>
       <c r="L22">
-        <v>-0.0030085017970338</v>
+        <v>-0.0263200214043147</v>
       </c>
       <c r="M22">
-        <v>0.0107944972840974</v>
+        <v>0.0014599088508762</v>
       </c>
       <c r="N22">
-        <v>0.298367860410404</v>
+        <v>-0.190789788904309</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
         <v>47</v>
@@ -2113,19 +2116,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2145,37 +2148,37 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.898054155600185</v>
+        <v>0.999909111827055</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.9428571428571429</v>
+        <v>0.915094339622642</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="K23">
-        <v>-0.0414679836512262</v>
+        <v>-0.0898232583298296</v>
       </c>
       <c r="L23">
-        <v>-0.07639423918093149</v>
+        <v>-0.136350619298592</v>
       </c>
       <c r="M23">
-        <v>0.007995103933803</v>
+        <v>-0.0549908583684519</v>
       </c>
       <c r="N23">
-        <v>-2.13752493047558</v>
+        <v>-4.70278839423192</v>
       </c>
       <c r="O23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q23">
         <v>1789183.391</v>
@@ -2184,19 +2187,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2216,37 +2219,37 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.679134309908725</v>
+        <v>0.948116497429786</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.847619047619048</v>
+        <v>0.867924528301887</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.111</v>
+        <v>0.1205</v>
       </c>
       <c r="K24">
-        <v>-0.0006634877384196</v>
+        <v>-0.002843779345467</v>
       </c>
       <c r="L24">
-        <v>-0.0039918286764572</v>
+        <v>-0.0065454476991752</v>
       </c>
       <c r="M24">
-        <v>0.0017036544669771</v>
+        <v>-2.9243713908183E-05</v>
       </c>
       <c r="N24">
-        <v>-0.597736701278934</v>
+        <v>-2.35998285930873</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q24">
         <v>1789183.391</v>
@@ -2255,19 +2258,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,37 +2290,37 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.701558800797819</v>
+        <v>0.983506476602199</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.923809523809524</v>
+        <v>0.915094339622642</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.32</v>
+        <v>8.115</v>
       </c>
       <c r="K25">
-        <v>-0.0807932715508483</v>
+        <v>-0.398744541484716</v>
       </c>
       <c r="L25">
-        <v>-0.431747240010337</v>
+        <v>-0.754252837162535</v>
       </c>
       <c r="M25">
-        <v>0.164570050489979</v>
+        <v>-0.0787818199048544</v>
       </c>
       <c r="N25">
-        <v>-0.971072975370773</v>
+        <v>-4.91367272316348</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q25">
         <v>1789183.391</v>
@@ -2326,19 +2329,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,37 +2361,37 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>6.08519791940321E-05</v>
+        <v>0.000280259411074</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.5048543689320391</v>
+        <v>0.53921568627451</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.4</v>
+        <v>0.385</v>
       </c>
       <c r="K26">
-        <v>-0.0221783681214421</v>
+        <v>-0.0202514851485148</v>
       </c>
       <c r="L26">
-        <v>-0.0337810408616128</v>
+        <v>-0.032700460580922</v>
       </c>
       <c r="M26">
-        <v>-0.012985641600342</v>
+        <v>-0.010033694908846</v>
       </c>
       <c r="N26">
-        <v>-5.54459203036053</v>
+        <v>-5.26012601260126</v>
       </c>
       <c r="O26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q26">
         <v>1789183.391</v>
@@ -2397,19 +2400,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2429,37 +2432,37 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.985085770547828</v>
+        <v>0.996571658638872</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.922480620155039</v>
+        <v>0.917293233082707</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9.69</v>
+        <v>9.82</v>
       </c>
       <c r="K27">
-        <v>0.101614342248411</v>
+        <v>0.127059263981329</v>
       </c>
       <c r="L27">
-        <v>0.0251674853498152</v>
+        <v>0.0542172870478746</v>
       </c>
       <c r="M27">
-        <v>0.171674949416011</v>
+        <v>0.202971308690654</v>
       </c>
       <c r="N27">
-        <v>1.04865162279062</v>
+        <v>1.29388252526812</v>
       </c>
       <c r="O27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27">
         <v>1789183.391</v>
@@ -2468,19 +2471,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2500,37 +2503,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.617924964916726</v>
+        <v>0.614272058267973</v>
       </c>
       <c r="G28">
-        <v>0.0930232558139535</v>
+        <v>0.09848484848484849</v>
       </c>
       <c r="H28">
-        <v>0.496124031007752</v>
+        <v>0.522727272727273</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>-0.0005683125854498</v>
+        <v>-0.0006021055623619</v>
       </c>
       <c r="M28">
-        <v>0.0005151832998942</v>
+        <v>0.000557590185181</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q28">
         <v>1789183.391</v>
@@ -2539,19 +2542,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,40 +2571,40 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>0.987473149563441</v>
+        <v>0.988373608677155</v>
       </c>
       <c r="G29">
-        <v>0.0387596899224806</v>
+        <v>0.053030303030303</v>
       </c>
       <c r="H29">
-        <v>0.573643410852713</v>
+        <v>0.560606060606061</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>-3.03950459784817</v>
+        <v>-2.76609327097541</v>
       </c>
       <c r="L29">
-        <v>-5.65587953711651</v>
+        <v>-5.00570623430301</v>
       </c>
       <c r="M29">
-        <v>-0.54573910014016</v>
+        <v>-0.604245941534074</v>
       </c>
       <c r="N29">
-        <v>-5.24052516870375</v>
+        <v>-5.12239494625076</v>
       </c>
       <c r="O29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q29">
         <v>1789183.391</v>
@@ -2610,19 +2613,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2636,19 +2639,19 @@
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>39</v>
       </c>
       <c r="F30">
-        <v>0.22520492855837</v>
+        <v>0.0981560166576811</v>
       </c>
       <c r="G30">
-        <v>0.24390243902439</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="H30">
-        <v>0.772357723577236</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="I30">
         <v>6</v>
@@ -2657,22 +2660,22 @@
         <v>0.025</v>
       </c>
       <c r="K30">
-        <v>0.0002916531103685</v>
+        <v>0.0005254703647857</v>
       </c>
       <c r="L30">
-        <v>-0.0005081730148082</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0012632574194523</v>
+        <v>0.0016058872597856</v>
       </c>
       <c r="N30">
-        <v>1.16661244147419</v>
+        <v>2.10188145914293</v>
       </c>
       <c r="O30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Q30">
         <v>1789183.391</v>
@@ -2681,19 +2684,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2713,37 +2716,37 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.175383490792458</v>
+        <v>0.463641677578397</v>
       </c>
       <c r="G31">
-        <v>0.19672131147541</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="H31">
-        <v>0.270491803278689</v>
+        <v>0.25</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-0.0001071799245817</v>
       </c>
       <c r="M31">
-        <v>0.0002499518459005</v>
+        <v>0.0001113021592985</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q31">
         <v>1789183.391</v>
@@ -2752,19 +2755,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2784,37 +2787,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.308866751452978</v>
+        <v>0.649749988437574</v>
       </c>
       <c r="G32">
-        <v>0.155737704918033</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="H32">
-        <v>0.8032786885245899</v>
+        <v>0.7803030303030301</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.4975</v>
+        <v>0.45</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>-0.0008223271408172</v>
+        <v>-0.0025174166090906</v>
       </c>
       <c r="M32">
-        <v>0.0065235485375974</v>
+        <v>0.0010981192391168</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q32">
         <v>1789183.391</v>
@@ -2823,19 +2826,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2855,37 +2858,37 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.808864039028858</v>
+        <v>0.78722444067494</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.811023622047244</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>8.02</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="K33">
-        <v>0.0144174584528013</v>
+        <v>0.0134813115791379</v>
       </c>
       <c r="L33">
-        <v>-0.0100331846437842</v>
+        <v>-0.009983798732758099</v>
       </c>
       <c r="M33">
-        <v>0.0339064214125654</v>
+        <v>0.0343577569593907</v>
       </c>
       <c r="N33">
-        <v>0.17976880863842</v>
+        <v>0.166951226986227</v>
       </c>
       <c r="O33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q33">
         <v>1789183.391</v>
@@ -2894,16 +2897,16 @@
         <v>5502687.637</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2920,40 +2923,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.491138990754169</v>
       </c>
       <c r="G34">
-        <v>0.0310077519379845</v>
+        <v>0.0378787878787879</v>
       </c>
       <c r="H34">
-        <v>0.922480620155039</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>0.5600000000000001</v>
+        <v>0.5385</v>
       </c>
       <c r="K34">
-        <v>0.0003184908936628</v>
+        <v>0.0004976158038147</v>
       </c>
       <c r="L34">
-        <v>-0.0073203194446381</v>
+        <v>-0.0049906029436517</v>
       </c>
       <c r="M34">
-        <v>0.0062980558587358</v>
+        <v>0.0045138546442292</v>
       </c>
       <c r="N34">
-        <v>0.056873373868369</v>
+        <v>0.0924077630110889</v>
       </c>
       <c r="O34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1789183.391</v>
@@ -2962,19 +2965,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2994,37 +2997,37 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.563725763056463</v>
+        <v>0.928438313078812</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.914728682170543</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="K35">
-        <v>-0.0042240292658447</v>
+        <v>-0.0261250342559605</v>
       </c>
       <c r="L35">
-        <v>-0.0366853290230852</v>
+        <v>-0.0563960645199373</v>
       </c>
       <c r="M35">
-        <v>0.0234778137625732</v>
+        <v>0.0026267023510565</v>
       </c>
       <c r="N35">
-        <v>-0.222317329781302</v>
+        <v>-1.41983881825872</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q35">
         <v>1789183.391</v>
@@ -3033,19 +3036,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3065,37 +3068,37 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.0130687627704889</v>
+        <v>0.10693152328671</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.798449612403101</v>
+        <v>0.810606060606061</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.099</v>
+        <v>0.106</v>
       </c>
       <c r="K36">
-        <v>0.0017366742984685</v>
+        <v>0.001000959166895</v>
       </c>
       <c r="L36">
-        <v>0.0005466949368845</v>
+        <v>-0.0004122588613562</v>
       </c>
       <c r="M36">
-        <v>0.0032171984093117</v>
+        <v>0.0023434438055012</v>
       </c>
       <c r="N36">
-        <v>1.75421646309958</v>
+        <v>0.944301100844378</v>
       </c>
       <c r="O36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q36">
         <v>1789183.391</v>
@@ -3104,19 +3107,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3130,43 +3133,43 @@
         <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.340020919149748</v>
+        <v>0.626510960880362</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.922480620155039</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>8.26</v>
+        <v>7.925</v>
       </c>
       <c r="K37">
-        <v>0.0471891146952723</v>
+        <v>-0.0291719008468005</v>
       </c>
       <c r="L37">
-        <v>-0.101045673165742</v>
+        <v>-0.228038580688423</v>
       </c>
       <c r="M37">
-        <v>0.201378703709847</v>
+        <v>0.123337326212023</v>
       </c>
       <c r="N37">
-        <v>0.571296788078357</v>
+        <v>-0.368099695227767</v>
       </c>
       <c r="O37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q37">
         <v>1789183.391</v>
@@ -3175,19 +3178,19 @@
         <v>5502687.637</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3207,7 +3210,7 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.59675202974633</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3219,25 +3222,25 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="K38">
-        <v>0.0037981751361226</v>
+        <v>-0.0034960761212508</v>
       </c>
       <c r="L38">
         <v>-0.0179708988322741</v>
       </c>
       <c r="M38">
-        <v>0.0106050548225992</v>
+        <v>0.008141216948377</v>
       </c>
       <c r="N38">
-        <v>3.30276098793278</v>
+        <v>-2.91339676770904</v>
       </c>
       <c r="O38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q38">
         <v>1789183.391</v>
@@ -3246,16 +3249,16 @@
         <v>5502687.637</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3275,7 +3278,7 @@
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3290,22 +3293,22 @@
         <v>69.23</v>
       </c>
       <c r="K39">
-        <v>0.473936115800681</v>
+        <v>-4.62736368639922</v>
       </c>
       <c r="L39">
         <v>-16.2996706748337</v>
       </c>
       <c r="M39">
-        <v>5.85009197750436</v>
+        <v>-1.22861694942973</v>
       </c>
       <c r="N39">
-        <v>0.684581995956495</v>
+        <v>-6.68404403639928</v>
       </c>
       <c r="O39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q39">
         <v>1789183.391</v>
@@ -3314,16 +3317,16 @@
         <v>5502687.637</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3355,25 +3358,25 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>3.7</v>
+        <v>3.54</v>
       </c>
       <c r="K40">
-        <v>-0.238880318525837</v>
+        <v>-0.307661773621219</v>
       </c>
       <c r="L40">
         <v>-0.654643942166109</v>
       </c>
       <c r="M40">
-        <v>-0.09243105303180681</v>
+        <v>-0.187176190257416</v>
       </c>
       <c r="N40">
-        <v>-6.45622482502263</v>
+        <v>-8.69101055427172</v>
       </c>
       <c r="O40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q40">
         <v>1789183.391</v>
@@ -3382,16 +3385,16 @@
         <v>5502687.637</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3411,37 +3414,37 @@
         <v>39</v>
       </c>
       <c r="F41">
-        <v>0.737445201097924</v>
+        <v>0.79051913742033</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
       <c r="K41">
-        <v>0.000508704735376</v>
+        <v>0.0007747727272727</v>
       </c>
       <c r="L41">
-        <v>-0.0011145480891264</v>
+        <v>-0.0015138736895302</v>
       </c>
       <c r="M41">
-        <v>0.0034146318063162</v>
+        <v>0.0036171840018572</v>
       </c>
       <c r="N41">
-        <v>0.450181181748712</v>
+        <v>0.679625199362041</v>
       </c>
       <c r="O41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q41">
         <v>1789183.391</v>
@@ -3450,16 +3453,16 @@
         <v>5502687.637</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3479,13 +3482,13 @@
         <v>39</v>
       </c>
       <c r="F42">
-        <v>0.6073244615435071</v>
+        <v>0.326711047377659</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3494,22 +3497,22 @@
         <v>68</v>
       </c>
       <c r="K42">
-        <v>0.204486800182067</v>
+        <v>-1.21640709156194</v>
       </c>
       <c r="L42">
-        <v>-1.30729806899117</v>
+        <v>-2.44288935783517</v>
       </c>
       <c r="M42">
-        <v>1.75838306094453</v>
+        <v>1.26267765963796</v>
       </c>
       <c r="N42">
-        <v>0.300715882620687</v>
+        <v>-1.78883395817932</v>
       </c>
       <c r="O42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q42">
         <v>1789183.391</v>
@@ -3518,16 +3521,16 @@
         <v>5502687.637</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3547,7 +3550,7 @@
         <v>39</v>
       </c>
       <c r="F43">
-        <v>0.006133030693106</v>
+        <v>0.002103775642746</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3559,25 +3562,25 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>4.0205</v>
+        <v>3.9155</v>
       </c>
       <c r="K43">
-        <v>-0.182625</v>
+        <v>-0.224204799107143</v>
       </c>
       <c r="L43">
-        <v>-0.28281813803341</v>
+        <v>-0.306764628717538</v>
       </c>
       <c r="M43">
-        <v>-0.0771967600229192</v>
+        <v>-0.150961027121126</v>
       </c>
       <c r="N43">
-        <v>-4.54234547941798</v>
+        <v>-5.72608349143514</v>
       </c>
       <c r="O43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q43">
         <v>1789183.391</v>
@@ -3586,16 +3589,16 @@
         <v>5502687.637</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3612,40 +3615,40 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44">
-        <v>0.478050036644582</v>
+        <v>0.51982359927472</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.857142857142857</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.114</v>
+        <v>0.115</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>-0.0017166967865501</v>
+        <v>-0.0016279618673651</v>
       </c>
       <c r="M44">
-        <v>0.0013488750613803</v>
+        <v>0.0012549697152843</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q44">
         <v>1789183.391</v>
@@ -3654,16 +3657,16 @@
         <v>5502687.637</v>
       </c>
       <c r="S44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3683,37 +3686,37 @@
         <v>39</v>
       </c>
       <c r="F45">
-        <v>0.382609514613013</v>
+        <v>0.227935534055348</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.8</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K45">
-        <v>-0.164627578304049</v>
+        <v>-0.506588072122053</v>
       </c>
       <c r="L45">
-        <v>-0.976115229318419</v>
+        <v>-1.47508996122207</v>
       </c>
       <c r="M45">
-        <v>0.672328529714606</v>
+        <v>0.554237059975305</v>
       </c>
       <c r="N45">
-        <v>-0.238590693194273</v>
+        <v>-0.744982459003019</v>
       </c>
       <c r="O45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P45" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q45">
         <v>1789183.391</v>
@@ -3722,16 +3725,16 @@
         <v>5502687.637</v>
       </c>
       <c r="S45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3751,7 +3754,7 @@
         <v>39</v>
       </c>
       <c r="F46">
-        <v>0.077314875982908</v>
+        <v>0.03001914545479</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3763,25 +3766,25 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>3.9255</v>
+        <v>3.87</v>
       </c>
       <c r="K46">
-        <v>-0.0758829639889196</v>
+        <v>-0.08174347687738651</v>
       </c>
       <c r="L46">
-        <v>-0.152303813142012</v>
+        <v>-0.167275862111619</v>
       </c>
       <c r="M46">
-        <v>0.0043142035472446</v>
+        <v>-0.0153623164526756</v>
       </c>
       <c r="N46">
-        <v>-1.93307767135192</v>
+        <v>-2.11223454463531</v>
       </c>
       <c r="O46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P46" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q46">
         <v>1789183.391</v>
@@ -3790,16 +3793,16 @@
         <v>5502687.637</v>
       </c>
       <c r="S46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
